--- a/lcr-alg.xlsx
+++ b/lcr-alg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_root\electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6CB2F-9230-4205-A7EA-33A6815A4A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F030B5-112E-404C-96F1-28670A604F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1030" yWindow="5020" windowWidth="17970" windowHeight="15420" xr2:uid="{2E74B363-B354-478C-A6EB-FD53D5D49798}"/>
+    <workbookView xWindow="1520" yWindow="930" windowWidth="18440" windowHeight="18060" xr2:uid="{2E74B363-B354-478C-A6EB-FD53D5D49798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>Rtop</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>GREEN are input cells. Blue items are used by both columns. Red items are hard-coded values that will eventually be derived by a calibration procedure</t>
+  </si>
+  <si>
+    <t>reactance</t>
+  </si>
+  <si>
+    <t>X this is reactance!</t>
   </si>
 </sst>
 </file>
@@ -229,13 +235,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +291,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,26 +384,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1"/>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -773,15 +788,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D113FF8-BD9A-45EA-BE8D-ED8F9C8AB33E}">
-  <dimension ref="A2:P30"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -791,40 +806,40 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I5" s="14"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="K6" s="1">
-        <v>0.39141999999999999</v>
+        <v>0.39140999999999998</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
@@ -834,11 +849,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>1.379011</v>
+        <v>1.3786020000000001</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -846,8 +861,8 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="11" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="1">
@@ -858,7 +873,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1">
@@ -870,12 +885,12 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="12"/>
       <c r="J8" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="1">
-        <v>0.354273</v>
+        <v>0.355155</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
@@ -885,7 +900,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
@@ -897,12 +912,12 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="12"/>
       <c r="J9" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="1">
-        <v>0.14858499999999999</v>
+        <v>0.14657500000000001</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
@@ -916,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>1.357E-2</v>
+        <v>1.3266999999999999E-2</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -924,13 +939,13 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="12"/>
       <c r="J10" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="3">
         <f>K8/K7</f>
-        <v>1.2518480565371025E-2</v>
+        <v>1.2549646643109541E-2</v>
       </c>
       <c r="L10" t="s">
         <v>7</v>
@@ -944,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>8.0000000000000007E-5</v>
+        <v>1.6949999999999999E-3</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -952,13 +967,13 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="12"/>
       <c r="J11" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="3">
         <f>K9/K7</f>
-        <v>5.2503533568904592E-3</v>
+        <v>5.1793286219081278E-3</v>
       </c>
       <c r="L11" t="s">
         <v>7</v>
@@ -968,13 +983,13 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I12" s="14"/>
+      <c r="I12" s="12"/>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12" s="3">
         <f>(PI()/2)-ATAN(K10/K11)</f>
-        <v>0.39712482209612765</v>
+        <v>0.39141257493351778</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
@@ -989,7 +1004,7 @@
       </c>
       <c r="B13" s="3">
         <f>(PI()/2)-ATAN(B10/B11)</f>
-        <v>5.8952891092818316E-3</v>
+        <v>0.12707220276058773</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -997,13 +1012,13 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="12"/>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13" s="3">
         <f>K12-K6</f>
-        <v>5.7048220961276597E-3</v>
+        <v>2.5749335177960297E-6</v>
       </c>
       <c r="L13" t="s">
         <v>10</v>
@@ -1018,7 +1033,7 @@
       </c>
       <c r="B14" s="4">
         <f>B13*180/PI()</f>
-        <v>0.33777518497128728</v>
+        <v>7.2807009116123256</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1026,13 +1041,13 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="12"/>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14" s="4">
         <f>K13*180/PI()</f>
-        <v>0.32686222898109052</v>
+        <v>1.4753282309648677E-4</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -1047,7 +1062,7 @@
       </c>
       <c r="B15" s="5">
         <f>SQRT((B10^2)+(B11^2))</f>
-        <v>1.3570235812247332E-2</v>
+        <v>1.337483884015056E-2</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1055,13 +1070,13 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="12"/>
       <c r="J15" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="5">
         <f>SQRT((K10^2)+(K11^2))</f>
-        <v>1.3574924163242422E-2</v>
+        <v>1.3576416163355752E-2</v>
       </c>
       <c r="L15" t="s">
         <v>7</v>
@@ -1071,13 +1086,13 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I16" s="14"/>
+      <c r="I16" s="12"/>
       <c r="J16" t="s">
         <v>58</v>
       </c>
       <c r="K16" s="3">
         <f>K15*COS(K13)</f>
-        <v>1.3574703265920997E-2</v>
+        <v>1.3576416163310744E-2</v>
       </c>
       <c r="L16" t="s">
         <v>7</v>
@@ -1087,13 +1102,13 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I17" s="14"/>
+      <c r="I17" s="12"/>
       <c r="J17" t="s">
         <v>59</v>
       </c>
       <c r="K17" s="3">
         <f>K15*SIN(K13)</f>
-        <v>7.7442107259293537E-5</v>
+        <v>3.4958369030533873E-8</v>
       </c>
       <c r="L17" t="s">
         <v>7</v>
@@ -1103,7 +1118,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I18" s="14"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -1111,7 +1126,7 @@
       </c>
       <c r="B19" s="3">
         <f>SQRT(  ((B7-B10)^2) + (B11^2)   )</f>
-        <v>1.3654410023435652</v>
+        <v>1.3653360521314892</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1119,13 +1134,13 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="12"/>
       <c r="J19" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3">
         <f>SQRT(  ((B7-K16)^2) + (K16^2)   )</f>
-        <v>1.365503772608349</v>
+        <v>1.3650930970466939</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
@@ -1137,7 +1152,7 @@
       </c>
       <c r="B20" s="3">
         <f>B19/B8</f>
-        <v>1.3654410023435652E-3</v>
+        <v>1.3653360521314892E-3</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1145,20 +1160,20 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="12"/>
       <c r="J20" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="3">
         <f>K19/B8</f>
-        <v>1.3655037726083489E-3</v>
+        <v>1.365093097046694E-3</v>
       </c>
       <c r="L20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I21" s="14"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1166,7 +1181,7 @@
       </c>
       <c r="B22" s="6">
         <f>B15/B20</f>
-        <v>9.9383538277788279</v>
+        <v>9.7960050342701201</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1174,20 +1189,20 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="12"/>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="6">
         <f>K15/K20</f>
-        <v>9.9413303980200389</v>
+        <v>9.9454141206395388</v>
       </c>
       <c r="L22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I23" s="14"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -1195,7 +1210,7 @@
       </c>
       <c r="B24" s="3">
         <f>B20*COS(B13)</f>
-        <v>1.3654172748479036E-3</v>
+        <v>1.354327601260619E-3</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -1203,13 +1218,13 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="12"/>
       <c r="J24" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="3">
         <f>K20*COS(K13)</f>
-        <v>1.3654815525117844E-3</v>
+        <v>1.3650930970421685E-3</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
@@ -1221,7 +1236,7 @@
       </c>
       <c r="B25" s="3">
         <f>B20*SIN(B13)</f>
-        <v>8.0496228436132823E-6</v>
+        <v>1.7302971916309244E-4</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -1229,44 +1244,44 @@
       <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="12"/>
       <c r="J25" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="3">
         <f>K20*SIN(K13)</f>
-        <v>7.7899138403766628E-6</v>
+        <v>3.5150239704936364E-9</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I26" s="14"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="7">
         <f>B15/B25</f>
-        <v>1685.822562856371</v>
+        <v>77.297928383874066</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" t="s">
+      <c r="I27" s="12"/>
+      <c r="J27" s="15" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="7">
         <f>K15/K25</f>
-        <v>1742.6282808008616</v>
-      </c>
-      <c r="L27" t="s">
+        <v>3862396.4665165944</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1276,7 +1291,7 @@
       </c>
       <c r="B28" s="7">
         <f>B15/B24</f>
-        <v>9.9385265312092574</v>
+        <v>9.8756304070751817</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1284,13 +1299,13 @@
       <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="14"/>
+      <c r="I28" s="12"/>
       <c r="J28" t="s">
         <v>31</v>
       </c>
       <c r="K28" s="7">
         <f>K15/K24</f>
-        <v>9.9414921704885266</v>
+        <v>9.9454141206725097</v>
       </c>
       <c r="L28" t="s">
         <v>1</v>
@@ -1302,7 +1317,7 @@
       </c>
       <c r="B29" s="8">
         <f>(1/(2*PI()*B9*B27))*1000000</f>
-        <v>9.4407885265357594E-2</v>
+        <v>2.0589807051685276</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -1310,13 +1325,13 @@
       <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="12"/>
       <c r="J29" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="8">
         <f>(1/(2*PI()*B9*K27))*1000000</f>
-        <v>9.1330402958198484E-2</v>
+        <v>4.1206267785200601E-5</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
@@ -1328,7 +1343,7 @@
       </c>
       <c r="B30" s="9">
         <f>(B27/(2*PI()*B9))*1000000</f>
-        <v>268306.9940544389</v>
+        <v>12302.347393056878</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -1336,16 +1351,31 @@
       <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="14"/>
+      <c r="I30" s="12"/>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="9">
         <f>(K27/(2*PI()*B9))*1000000</f>
-        <v>277347.90486118855</v>
+        <v>614719489.82678628</v>
       </c>
       <c r="L30" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="7">
+        <f>SQRT(ABS(B22^2-B28^2))</f>
+        <v>1.251543569238557</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
